--- a/M2_Pandas_Basic/exercises_HW/products_data.xlsx
+++ b/M2_Pandas_Basic/exercises_HW/products_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,72 +434,81 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>101</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Product A</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>99.98999999999999</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
       </c>
       <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>102</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Product B</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>149.99</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
       </c>
       <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>103</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Product C</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>199.99</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
       </c>
       <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
         <v>50</v>
       </c>
     </row>
